--- a/open.xlsx
+++ b/open.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,352 +436,332 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>youtube link</t>
+          <t>Text__TextElement-sc-if376j-0</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>spotify link</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Text__TextElement-sc-if376j-0 2</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Text__TextElement-sc-if376j-0 4</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>standalone-ellipsis-one-line</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>NEW PLAYS March 15, 2024</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>DATE</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>ARTISTS</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>LABELS</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>NEW PLAYS March 18, 2024</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
           <t>TITLE</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>VIEWS</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>DATE</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>https://www.youtube.com/watch?v=a0Wz6qLkaZ8</t>
-        </is>
+      <c r="A2" t="n">
+        <v>1</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>LIVE | Valorant | Sage Only</t>
+          <t>https://open.spotify.com/track/2lnvTSNqVbwhTyP7hbwbcA</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>Har Har Shambhu</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2024-03-12T07:18:46-07:00</t>
+          <t>Jubin Nautiyal</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Har Har Shambhu</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>63,962</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2024-02-26</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Jubin Nautiyal, Payal Dev, Manoj Muntashir</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>© 2024 Super Cassettes Industries Private Limited</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>73,264</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>Har Har Shambhu</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>https://www.youtube.com/watch?v=dXawe9Er7s4</t>
-        </is>
+      <c r="A3" t="n">
+        <v>2</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Valorant 03 12 2024 15 58 41 792</t>
+          <t>https://open.spotify.com/track/0AzJN3Rf4I5IzhHv75DBBe</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>Aatma Jaag Gai</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2024-03-12T03:52:39-07:00</t>
+          <t>Hansraj Raghuwanshi</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Aatma Jaag Gai</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>25,324</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2024-03-02</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Hansraj Raghuwanshi</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>© 2024 Hansraj Raghuwanshi</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>28,430</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>Aatma Jaag Gai</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>https://www.youtube.com/watch?v=rksoVM8T-lI</t>
-        </is>
+      <c r="A4" t="n">
+        <v>3</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Valorant Omen Sunset Gameplay 03 12 2024 15 10 9 997</t>
+          <t>https://open.spotify.com/track/7217n1P68XQZFSxuh4oD7f</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>Bhole Ke Mandir Mein</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2024-03-12T03:14:37-07:00</t>
+          <t>Sonu Nigam</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Bhole Ke Mandir Mein</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>16,906</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2024-02-22</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Sonu Nigam, Deepali Sathe, Saaveri Verma</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>© 2024 Super Cassettes Industries Private Limited</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>18,188</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>Bhole Ke Mandir Mein</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>https://www.youtube.com/watch?v=7pVDSKc6jVo</t>
-        </is>
+      <c r="A5" t="n">
+        <v>4</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>LIVE | Valorant | Sage Only</t>
+          <t>https://open.spotify.com/track/656IN0JSaRFHT9rfqn1kys</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>Shambhu</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2024-03-10T13:47:05-07:00</t>
+          <t>Akshay Kumar</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Shambhu</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>173,449</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2024-02-05</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Akshay Kumar, Sudhir Yaduvanshi, Vikram Montrose</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>© 2024 Times Music &amp; Cape of Good Films LLP</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>183,532</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>Shambhu</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>https://www.youtube.com/watch?v=-mUcKXHHAEU</t>
-        </is>
+      <c r="A6" t="n">
+        <v>5</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Daily Minus RR. EZ</t>
+          <t>https://open.spotify.com/track/77EGwUvKLSsinbBoPtsIPn</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>Shiv Tandav Stotra (Hindi Adaptation)</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2024-03-10T10:44:18-07:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>https://www.youtube.com/watch?v=hPDkSk9tePo</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Baswal ki MAA KI CHOOT. BASWAL Ki MAA KA BHOSDA FAAD DIA AAJ</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>14</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>2024-03-09T21:10:20-08:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>https://www.youtube.com/watch?v=tBygyeIbXCo</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Road to Radiant #Ranked Duo with Dudepits!</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>2024-03-05T20:39:44-08:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>https://www.youtube.com/watch?v=fjwbM5Lpys8</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Road to Radiant #Ranked Duo with Dudepits!</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>2024-03-05T15:27:05-08:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>https://www.youtube.com/watch?v=ZzYfzdTesOQ</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Road to Radiant #Ranked</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>2024-03-04T23:22:27-08:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>https://www.youtube.com/watch?v=WZg9-A4h-5w</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Valorant Competitive with DudePits | Mumbai</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>2023-07-21T13:38:44-07:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>https://www.youtube.com/watch?v=NJbqYIBBAHc</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>Valorant Competitive with DudePits | Mumbai</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>2023-07-20T23:17:24-07:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>https://www.youtube.com/watch?v=YYHeKZoIQig</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>Valorant Competitive with Gomzi | Mumbai</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>2023-07-19T23:36:57-07:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>https://www.youtube.com/watch?v=s-b2COtziQY</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>Valorant Competitive with Gomzi | Mumbai</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>2023-07-18T23:59:45-07:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>https://www.youtube.com/watch?v=HM6GrBVMHig</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>Valorant Competitive | Mumbai</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>2023-07-17T23:33:01-07:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>https://www.youtube.com/watch?v=FE9e7WIccsI</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>DudePits Bhosdiwala. Valorant Competitive | Mumbai</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>2023-07-16T23:48:22-07:00</t>
+          <t>Om Voices</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Shiv Tandav Stotra (Hindi Adaptation)</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>361,884</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2023-08-10</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Om Voices</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>© 2023 Strumm Entertainment Pvt Ltd</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>363,946</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>Shiv Tandav Stotra (Hindi Adaptation)</t>
         </is>
       </c>
     </row>

--- a/open.xlsx
+++ b/open.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K6"/>
+  <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,6 +489,11 @@
           <t>TITLE</t>
         </is>
       </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>NEW PLAYS March 21, 2024</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -544,6 +549,11 @@
           <t>Har Har Shambhu</t>
         </is>
       </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>82,137</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -599,6 +609,11 @@
           <t>Aatma Jaag Gai</t>
         </is>
       </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>32,497</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -654,6 +669,11 @@
           <t>Bhole Ke Mandir Mein</t>
         </is>
       </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>19,638</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -709,6 +729,11 @@
           <t>Shambhu</t>
         </is>
       </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>193,621</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -762,6 +787,11 @@
       <c r="K6" t="inlineStr">
         <is>
           <t>Shiv Tandav Stotra (Hindi Adaptation)</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>365,967</t>
         </is>
       </c>
     </row>

--- a/open.xlsx
+++ b/open.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L6"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,362 +436,224 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Text__TextElement-sc-if376j-0</t>
+          <t>spotify link</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>spotify link</t>
+          <t>NEW PLAYS July 18, 2024</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Text__TextElement-sc-if376j-0 2</t>
+          <t>DATE</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Text__TextElement-sc-if376j-0 4</t>
+          <t>ARTISTS</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>standalone-ellipsis-one-line</t>
+          <t>LABELS</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>NEW PLAYS March 15, 2024</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>DATE</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>ARTISTS</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>LABELS</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>NEW PLAYS March 18, 2024</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
           <t>TITLE</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>NEW PLAYS March 21, 2024</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
-        <v>1</v>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>https://open.spotify.com/track/6m9vm0dDlV85r6Q5u3zFUA</t>
+        </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>https://open.spotify.com/track/2lnvTSNqVbwhTyP7hbwbcA</t>
+          <t>1,274,512</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Har Har Shambhu</t>
+          <t>2023-01-09</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Jubin Nautiyal</t>
+          <t>Abhilipsa Panda</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Har Har Shambhu</t>
+          <t>© 2023 Shemaroo Entertainment Ltd.</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>63,962</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>2024-02-26</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>Jubin Nautiyal, Payal Dev, Manoj Muntashir</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>© 2024 Super Cassettes Industries Private Limited</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>73,264</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>Har Har Shambhu</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>82,137</t>
+          <t>Devon Ke Dev Tum Mahadev</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="n">
-        <v>2</v>
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>https://open.spotify.com/track/6ywNe2BWj1FmOFHDgZfktG?si=d6ae123215f94f28</t>
+        </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>https://open.spotify.com/track/0AzJN3Rf4I5IzhHv75DBBe</t>
+          <t>160,698</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Aatma Jaag Gai</t>
+          <t>2022-10-10</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Hansraj Raghuwanshi</t>
+          <t>Abhilipsa Panda</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Aatma Jaag Gai</t>
+          <t>© 2022 Saregama India Ltd</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>25,324</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>2024-03-02</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>Hansraj Raghuwanshi</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>© 2024 Hansraj Raghuwanshi</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>28,430</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>Aatma Jaag Gai</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>32,497</t>
+          <t>Bum Bum Bhole</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="n">
-        <v>3</v>
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>https://open.spotify.com/track/58CYPNU0OEfO7efYQ9sLma?si=f4354b68351d40db</t>
+        </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>https://open.spotify.com/track/7217n1P68XQZFSxuh4oD7f</t>
+          <t>148,057</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Bhole Ke Mandir Mein</t>
+          <t>2022-10-10</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Sonu Nigam</t>
+          <t>Abhilipsa Panda</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Bhole Ke Mandir Mein</t>
+          <t>© 2022 Nupur Audio</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>16,906</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>2024-02-22</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>Sonu Nigam, Deepali Sathe, Saaveri Verma</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>© 2024 Super Cassettes Industries Private Limited</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>18,188</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>Bhole Ke Mandir Mein</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>19,638</t>
+          <t>Shankar Bole Parvati Se</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="n">
-        <v>4</v>
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>https://open.spotify.com/track/0i7gvtu0UIg5P99wR75fjl</t>
+        </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>https://open.spotify.com/track/656IN0JSaRFHT9rfqn1kys</t>
+          <t>484,537</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Shambhu</t>
+          <t>2022-11-14</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Akshay Kumar</t>
+          <t>Abhilipsa Panda</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Shambhu</t>
+          <t>© 2022 Saya Studio</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>173,449</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>2024-02-05</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>Akshay Kumar, Sudhir Yaduvanshi, Vikram Montrose</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>© 2024 Times Music &amp; Cape of Good Films LLP</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>183,532</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>Shambhu</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>193,621</t>
+          <t>Shankara</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="n">
-        <v>5</v>
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>https://open.spotify.com/track/7ByvG547BsdzcxgLV0R00r?si=21263b05d6ce4a53</t>
+        </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>https://open.spotify.com/track/77EGwUvKLSsinbBoPtsIPn</t>
+          <t>19,657</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Shiv Tandav Stotra (Hindi Adaptation)</t>
+          <t>2024-02-19</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Om Voices</t>
+          <t>Abhilipsa Panda, AGAM AGRAWAL, NARCI</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Shiv Tandav Stotra (Hindi Adaptation)</t>
+          <t>© 2024 ROCKSTAR ABHILIPSA PANDA</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>361,884</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>2023-08-10</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>Om Voices</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>© 2023 Strumm Entertainment Pvt Ltd</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>363,946</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>Shiv Tandav Stotra (Hindi Adaptation)</t>
-        </is>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>365,967</t>
+          <t>Shambhu Hamare</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>https://open.spotify.com/track/5SeSDXlcZzlpgFZ0p6rWjY?si=49d70d40a98e468c</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>59,006</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>2023-02-09</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Abhilipsa Panda, Arabinda Neog, JUNO</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>© 2023 Times Music</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Shiv Shiv Hai</t>
         </is>
       </c>
     </row>

--- a/open.xlsx
+++ b/open.xlsx
@@ -596,64 +596,64 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>https://open.spotify.com/track/7ByvG547BsdzcxgLV0R00r?si=21263b05d6ce4a53</t>
+          <t>sdasfasfasfasfasf</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>19,657</t>
+          <t>None</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>2024-02-19</t>
+          <t>None</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Abhilipsa Panda, AGAM AGRAWAL, NARCI</t>
+          <t>None</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>© 2024 ROCKSTAR ABHILIPSA PANDA</t>
+          <t>None</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Shambhu Hamare</t>
+          <t>None</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>https://open.spotify.com/track/5SeSDXlcZzlpgFZ0p6rWjY?si=49d70d40a98e468c</t>
+          <t>https://open.spotify.com/track/7ByvG547BsdzcxgLV0R00r?si=21263b05d6ce4a53</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>59,006</t>
+          <t>19,657</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>2023-02-09</t>
+          <t>2024-02-19</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Abhilipsa Panda, Arabinda Neog, JUNO</t>
+          <t>Abhilipsa Panda, AGAM AGRAWAL, NARCI</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>© 2023 Times Music</t>
+          <t>© 2024 ROCKSTAR ABHILIPSA PANDA</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Shiv Shiv Hai</t>
+          <t>Shambhu Hamare</t>
         </is>
       </c>
     </row>
